--- a/InputData/hydgn/RHPF/Recipient Hydrogen Pathway Fractions.xlsx
+++ b/InputData/hydgn/RHPF/Recipient Hydrogen Pathway Fractions.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox (Energy Innovation)\EI-PlcyMdl\eps-1.5.0-us-wipD\InputData\hydgn\RHPF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\hydgn\RHPF\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{164A9850-5F0F-4A58-A99B-88A53A89616D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25815" windowHeight="11970"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
   <si>
     <t>RHPF Recipient Hydrogen Pathway Fractions</t>
   </si>
@@ -51,9 +52,6 @@
     <t>data.</t>
   </si>
   <si>
-    <t>electrolysis.</t>
-  </si>
-  <si>
     <t>For the U.S. model, it is configured to shift all pathways to</t>
   </si>
   <si>
@@ -76,12 +74,21 @@
   </si>
   <si>
     <t>Ensure that every column adds to 1.</t>
+  </si>
+  <si>
+    <t>electrolysis with guaranteed clean electricity</t>
+  </si>
+  <si>
+    <t>natural gas reforming with CCS</t>
+  </si>
+  <si>
+    <t>electrolysis that is guaranteed to be supplied by new clean electricity sources.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -122,7 +129,6 @@
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -130,6 +136,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -411,10 +420,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -442,33 +453,33 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="A9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -478,139 +489,228 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.28515625" customWidth="1"/>
-    <col min="2" max="6" width="16.5703125" style="4" customWidth="1"/>
+    <col min="2" max="6" width="16.5703125" style="3" customWidth="1"/>
+    <col min="7" max="8" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B3" s="3">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="3">
         <v>1</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C7" s="3">
         <v>1</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D7" s="3">
         <v>1</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E7" s="3">
         <v>1</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F7" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="4">
-        <v>0</v>
-      </c>
-      <c r="C3" s="4">
-        <v>0</v>
-      </c>
-      <c r="D3" s="4">
-        <v>0</v>
-      </c>
-      <c r="E3" s="4">
-        <v>0</v>
-      </c>
-      <c r="F3" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="4">
-        <v>0</v>
-      </c>
-      <c r="C4" s="4">
-        <v>0</v>
-      </c>
-      <c r="D4" s="4">
-        <v>0</v>
-      </c>
-      <c r="E4" s="4">
-        <v>0</v>
-      </c>
-      <c r="F4" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="4">
-        <v>0</v>
-      </c>
-      <c r="C5" s="4">
-        <v>0</v>
-      </c>
-      <c r="D5" s="4">
-        <v>0</v>
-      </c>
-      <c r="E5" s="4">
-        <v>0</v>
-      </c>
-      <c r="F5" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="4">
-        <v>0</v>
-      </c>
-      <c r="C6" s="4">
-        <v>0</v>
-      </c>
-      <c r="D6" s="4">
-        <v>0</v>
-      </c>
-      <c r="E6" s="4">
-        <v>0</v>
-      </c>
-      <c r="F6" s="4">
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
         <v>0</v>
       </c>
     </row>
